--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_18%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1927,28 +1927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>941.6336787667253</v>
+        <v>1004.12058399421</v>
       </c>
       <c r="AB2" t="n">
-        <v>1288.384741234658</v>
+        <v>1373.882081694601</v>
       </c>
       <c r="AC2" t="n">
-        <v>1165.423109790563</v>
+        <v>1242.76070407328</v>
       </c>
       <c r="AD2" t="n">
-        <v>941633.6787667254</v>
+        <v>1004120.58399421</v>
       </c>
       <c r="AE2" t="n">
-        <v>1288384.741234658</v>
+        <v>1373882.081694601</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.712537294485817e-06</v>
+        <v>2.895129265923039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.83055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1165423.109790563</v>
+        <v>1242760.70407328</v>
       </c>
     </row>
     <row r="3">
@@ -2033,28 +2033,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>314.3244271051658</v>
+        <v>345.4826283728877</v>
       </c>
       <c r="AB3" t="n">
-        <v>430.0725481803279</v>
+        <v>472.7045737576503</v>
       </c>
       <c r="AC3" t="n">
-        <v>389.027027792609</v>
+        <v>427.5903126832555</v>
       </c>
       <c r="AD3" t="n">
-        <v>314324.4271051658</v>
+        <v>345482.6283728877</v>
       </c>
       <c r="AE3" t="n">
-        <v>430072.5481803279</v>
+        <v>472704.5737576503</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.216313973211416e-06</v>
+        <v>5.437338352994738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.300000000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>389027.027792609</v>
+        <v>427590.3126832555</v>
       </c>
     </row>
     <row r="4">
@@ -2139,28 +2139,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>258.2117942777909</v>
+        <v>289.4552468915334</v>
       </c>
       <c r="AB4" t="n">
-        <v>353.2967684312663</v>
+        <v>396.0454386612381</v>
       </c>
       <c r="AC4" t="n">
-        <v>319.5786207073143</v>
+        <v>358.247417848673</v>
       </c>
       <c r="AD4" t="n">
-        <v>258211.7942777909</v>
+        <v>289455.2468915334</v>
       </c>
       <c r="AE4" t="n">
-        <v>353296.7684312663</v>
+        <v>396045.4386612381</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.525734843950356e-06</v>
+        <v>5.960429687267058e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.747222222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>319578.6207073143</v>
+        <v>358247.417848673</v>
       </c>
     </row>
     <row r="5">
@@ -2245,28 +2245,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>259.2996295096027</v>
+        <v>290.5430821233451</v>
       </c>
       <c r="AB5" t="n">
-        <v>354.7851925873346</v>
+        <v>397.5338628173062</v>
       </c>
       <c r="AC5" t="n">
-        <v>320.9249917509437</v>
+        <v>359.5937888923024</v>
       </c>
       <c r="AD5" t="n">
-        <v>259299.6295096026</v>
+        <v>290543.0821233451</v>
       </c>
       <c r="AE5" t="n">
-        <v>354785.1925873345</v>
+        <v>397533.8628173062</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.525151306240334e-06</v>
+        <v>5.959443187815343e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.747222222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>320924.9917509437</v>
+        <v>359593.7888923024</v>
       </c>
     </row>
   </sheetData>
@@ -2542,28 +2542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>567.5272029836729</v>
+        <v>607.8895638676644</v>
       </c>
       <c r="AB2" t="n">
-        <v>776.5157566553974</v>
+        <v>831.7413194785639</v>
       </c>
       <c r="AC2" t="n">
-        <v>702.4061826869148</v>
+        <v>752.3610953038027</v>
       </c>
       <c r="AD2" t="n">
-        <v>567527.2029836728</v>
+        <v>607889.5638676644</v>
       </c>
       <c r="AE2" t="n">
-        <v>776515.7566553974</v>
+        <v>831741.319478564</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273691404509717e-06</v>
+        <v>3.937558328121535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.219444444444443</v>
       </c>
       <c r="AH2" t="n">
-        <v>702406.1826869148</v>
+        <v>752361.0953038028</v>
       </c>
     </row>
     <row r="3">
@@ -2648,28 +2648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.0075839018821</v>
+        <v>289.1991735681825</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.7031617336837</v>
+        <v>395.6950678430716</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.1869301578133</v>
+        <v>357.9304859296439</v>
       </c>
       <c r="AD3" t="n">
-        <v>249007.5839018821</v>
+        <v>289199.1735681825</v>
       </c>
       <c r="AE3" t="n">
-        <v>340703.1617336837</v>
+        <v>395695.0678430717</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.527043794955304e-06</v>
+        <v>6.108102727102643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.943055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>308186.9301578133</v>
+        <v>357930.4859296439</v>
       </c>
     </row>
     <row r="4">
@@ -2754,28 +2754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.3533615440695</v>
+        <v>278.6250650756529</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.8080258414715</v>
+        <v>381.2271061068498</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.3772247788223</v>
+        <v>344.8433261556151</v>
       </c>
       <c r="AD4" t="n">
-        <v>248353.3615440695</v>
+        <v>278625.0650756529</v>
       </c>
       <c r="AE4" t="n">
-        <v>339808.0258414715</v>
+        <v>381227.1061068497</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.540475265485064e-06</v>
+        <v>6.131363226983355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.919444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>307377.2247788223</v>
+        <v>344843.3261556151</v>
       </c>
     </row>
   </sheetData>
@@ -3051,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.283535841633</v>
+        <v>288.6297221883302</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.4996607545887</v>
+        <v>394.9159193427358</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.3803948860951</v>
+        <v>357.2256982686383</v>
       </c>
       <c r="AD2" t="n">
-        <v>261283.535841633</v>
+        <v>288629.7221883301</v>
       </c>
       <c r="AE2" t="n">
-        <v>357499.6607545887</v>
+        <v>394915.9193427358</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.294232985331377e-06</v>
+        <v>6.233397693319197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AH2" t="n">
-        <v>323380.3948860951</v>
+        <v>357225.6982686383</v>
       </c>
     </row>
   </sheetData>
@@ -3348,28 +3348,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>264.4788733148761</v>
+        <v>302.3800555761943</v>
       </c>
       <c r="AB2" t="n">
-        <v>361.8716624538202</v>
+        <v>413.7297321059075</v>
       </c>
       <c r="AC2" t="n">
-        <v>327.3351388792948</v>
+        <v>374.2439471470449</v>
       </c>
       <c r="AD2" t="n">
-        <v>264478.8733148761</v>
+        <v>302380.0555761943</v>
       </c>
       <c r="AE2" t="n">
-        <v>361871.6624538202</v>
+        <v>413729.7321059075</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.332406331462325e-06</v>
+        <v>6.070920621312204e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.713888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>327335.1388792949</v>
+        <v>374243.9471470449</v>
       </c>
     </row>
     <row r="3">
@@ -3454,28 +3454,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.3687306112774</v>
+        <v>277.7733716021774</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.1972985941466</v>
+        <v>380.0617815223764</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.6339072898391</v>
+        <v>343.7892185139405</v>
       </c>
       <c r="AD3" t="n">
-        <v>249368.7306112775</v>
+        <v>277773.3716021774</v>
       </c>
       <c r="AE3" t="n">
-        <v>341197.2985941466</v>
+        <v>380061.7815223763</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.459838451751748e-06</v>
+        <v>6.303074269436835e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.466666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>308633.9072898391</v>
+        <v>343789.2185139405</v>
       </c>
     </row>
   </sheetData>
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>275.4057122167516</v>
+        <v>319.248280342945</v>
       </c>
       <c r="AB2" t="n">
-        <v>376.8222454974768</v>
+        <v>436.8095814053314</v>
       </c>
       <c r="AC2" t="n">
-        <v>340.85885926054</v>
+        <v>395.1210880221038</v>
       </c>
       <c r="AD2" t="n">
-        <v>275405.7122167516</v>
+        <v>319248.280342945</v>
       </c>
       <c r="AE2" t="n">
-        <v>376822.2454974768</v>
+        <v>436809.5814053314</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.043385388886618e-06</v>
+        <v>5.964054782022174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.981944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>340858.85926054</v>
+        <v>395121.0880221038</v>
       </c>
     </row>
   </sheetData>
@@ -4048,28 +4048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>635.4068924261683</v>
+        <v>686.285424876249</v>
       </c>
       <c r="AB2" t="n">
-        <v>869.3917423911665</v>
+        <v>939.0059950918022</v>
       </c>
       <c r="AC2" t="n">
-        <v>786.4182146963271</v>
+        <v>849.3885808234313</v>
       </c>
       <c r="AD2" t="n">
-        <v>635406.8924261683</v>
+        <v>686285.4248762489</v>
       </c>
       <c r="AE2" t="n">
-        <v>869391.7423911665</v>
+        <v>939005.9950918022</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.126739460250817e-06</v>
+        <v>3.659015274162142e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.766666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>786418.2146963271</v>
+        <v>849388.5808234313</v>
       </c>
     </row>
     <row r="3">
@@ -4154,28 +4154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.221961873849</v>
+        <v>285.7490813439004</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.2059478339315</v>
+        <v>390.9744994544822</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.8782222863913</v>
+        <v>353.6604419627021</v>
       </c>
       <c r="AD3" t="n">
-        <v>255221.961873849</v>
+        <v>285749.0813439004</v>
       </c>
       <c r="AE3" t="n">
-        <v>349205.9478339315</v>
+        <v>390974.4994544822</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.498202248612278e-06</v>
+        <v>6.018591228034634e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>315878.2222863913</v>
+        <v>353660.4419627021</v>
       </c>
     </row>
     <row r="4">
@@ -4260,28 +4260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>250.1310985378921</v>
+        <v>280.6582180079433</v>
       </c>
       <c r="AB4" t="n">
-        <v>342.2404040246393</v>
+        <v>384.0089556451865</v>
       </c>
       <c r="AC4" t="n">
-        <v>309.5774602020537</v>
+        <v>347.3596798783634</v>
       </c>
       <c r="AD4" t="n">
-        <v>250131.098537892</v>
+        <v>280658.2180079434</v>
       </c>
       <c r="AE4" t="n">
-        <v>342240.4040246393</v>
+        <v>384008.9556451865</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.541275452870523e-06</v>
+        <v>6.092697866498677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.865277777777777</v>
       </c>
       <c r="AH4" t="n">
-        <v>309577.4602020537</v>
+        <v>347359.6798783634</v>
       </c>
     </row>
   </sheetData>
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.4393652581555</v>
+        <v>342.4414018181902</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.706149878666</v>
+        <v>468.5434334160669</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.6043699604382</v>
+        <v>423.8263057356756</v>
       </c>
       <c r="AD2" t="n">
-        <v>299439.3652581554</v>
+        <v>342441.4018181902</v>
       </c>
       <c r="AE2" t="n">
-        <v>409706.149878666</v>
+        <v>468543.4334160669</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.838547954579376e-06</v>
+        <v>5.690324611641654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.758333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>370604.3699604382</v>
+        <v>423826.3057356756</v>
       </c>
     </row>
   </sheetData>
@@ -4854,28 +4854,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.5121829949624</v>
+        <v>419.7691899722222</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.6335557864544</v>
+        <v>574.3467246296578</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.9450199359794</v>
+        <v>519.5318793316935</v>
       </c>
       <c r="AD2" t="n">
-        <v>380512.1829949624</v>
+        <v>419769.1899722222</v>
       </c>
       <c r="AE2" t="n">
-        <v>520633.5557864544</v>
+        <v>574346.7246296578</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.791660739502736e-06</v>
+        <v>4.94423860931439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.736111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>470945.0199359793</v>
+        <v>519531.8793316935</v>
       </c>
     </row>
     <row r="3">
@@ -4960,28 +4960,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.7086627786233</v>
+        <v>281.0661666655507</v>
       </c>
       <c r="AB3" t="n">
-        <v>344.3988970160292</v>
+        <v>384.5671289959494</v>
       </c>
       <c r="AC3" t="n">
-        <v>311.5299496518099</v>
+        <v>347.8645819479306</v>
       </c>
       <c r="AD3" t="n">
-        <v>251708.6627786233</v>
+        <v>281066.1666655507</v>
       </c>
       <c r="AE3" t="n">
-        <v>344398.8970160292</v>
+        <v>384567.1289959493</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.523394917964352e-06</v>
+        <v>6.240194212268246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.129166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>311529.9496518099</v>
+        <v>347864.5819479306</v>
       </c>
     </row>
   </sheetData>
@@ -5257,28 +5257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>494.59072287737</v>
+        <v>544.5163404919265</v>
       </c>
       <c r="AB2" t="n">
-        <v>676.7208468435474</v>
+        <v>745.0312794265838</v>
       </c>
       <c r="AC2" t="n">
-        <v>612.1355590044723</v>
+        <v>673.926539776078</v>
       </c>
       <c r="AD2" t="n">
-        <v>494590.72287737</v>
+        <v>544516.3404919265</v>
       </c>
       <c r="AE2" t="n">
-        <v>676720.8468435474</v>
+        <v>745031.2794265838</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.435905843924073e-06</v>
+        <v>4.2480070904434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.68611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>612135.5590044722</v>
+        <v>673926.539776078</v>
       </c>
     </row>
     <row r="3">
@@ -5363,28 +5363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.293534752384</v>
+        <v>285.1316198185464</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.6214358350586</v>
+        <v>390.1296613550129</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.5901970467042</v>
+        <v>352.8962340257083</v>
       </c>
       <c r="AD3" t="n">
-        <v>245293.534752384</v>
+        <v>285131.6198185463</v>
       </c>
       <c r="AE3" t="n">
-        <v>335621.4358350586</v>
+        <v>390129.6613550129</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.539368601291142e-06</v>
+        <v>6.172349785801556e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.977777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>303590.1970467042</v>
+        <v>352896.2340257083</v>
       </c>
     </row>
     <row r="4">
@@ -5469,28 +5469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.1625281872738</v>
+        <v>286.0006132534361</v>
       </c>
       <c r="AB4" t="n">
-        <v>336.8104309899589</v>
+        <v>391.3186565099138</v>
       </c>
       <c r="AC4" t="n">
-        <v>304.6657161727863</v>
+        <v>353.9717531517907</v>
       </c>
       <c r="AD4" t="n">
-        <v>246162.5281872738</v>
+        <v>286000.6132534362</v>
       </c>
       <c r="AE4" t="n">
-        <v>336810.4309899589</v>
+        <v>391318.6565099138</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.54028269442164e-06</v>
+        <v>6.17394388440326e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.976388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>304665.7161727863</v>
+        <v>353971.7531517907</v>
       </c>
     </row>
   </sheetData>
@@ -5766,28 +5766,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.7101472111134</v>
+        <v>881.3973633389112</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.246027642544</v>
+        <v>1205.966757027639</v>
       </c>
       <c r="AC2" t="n">
-        <v>1026.899740092146</v>
+        <v>1090.870982321894</v>
       </c>
       <c r="AD2" t="n">
-        <v>829710.1472111134</v>
+        <v>881397.3633389112</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135246.027642544</v>
+        <v>1205966.757027639</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846073644822291e-06</v>
+        <v>3.138202845121785e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.06388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1026899.740092146</v>
+        <v>1090870.982321894</v>
       </c>
     </row>
     <row r="3">
@@ -5872,28 +5872,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.3646515900207</v>
+        <v>325.2916762155482</v>
       </c>
       <c r="AB3" t="n">
-        <v>402.7627027573577</v>
+        <v>445.0784222540361</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.3235956871983</v>
+        <v>402.6007623055991</v>
       </c>
       <c r="AD3" t="n">
-        <v>294364.6515900207</v>
+        <v>325291.6762155482</v>
       </c>
       <c r="AE3" t="n">
-        <v>402762.7027573577</v>
+        <v>445078.4222540361</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.328049922703369e-06</v>
+        <v>5.657464297498505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.137499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>364323.5956871983</v>
+        <v>402600.7623055991</v>
       </c>
     </row>
     <row r="4">
@@ -5978,28 +5978,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>255.8923815252896</v>
+        <v>286.9046574968409</v>
       </c>
       <c r="AB4" t="n">
-        <v>350.1232455778597</v>
+        <v>392.5556097273573</v>
       </c>
       <c r="AC4" t="n">
-        <v>316.7079744210747</v>
+        <v>355.0906532902361</v>
       </c>
       <c r="AD4" t="n">
-        <v>255892.3815252896</v>
+        <v>286904.6574968409</v>
       </c>
       <c r="AE4" t="n">
-        <v>350123.2455778597</v>
+        <v>392555.6097273572</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.528774036546163e-06</v>
+        <v>5.998681987763858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.787500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>316707.9744210747</v>
+        <v>355090.6532902361</v>
       </c>
     </row>
   </sheetData>
@@ -6275,28 +6275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.1036545342279</v>
+        <v>329.4508991242723</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.3008627205854</v>
+        <v>450.7692545297169</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.2875874013039</v>
+        <v>407.7484695360222</v>
       </c>
       <c r="AD2" t="n">
-        <v>291103.6545342279</v>
+        <v>329450.8991242723</v>
       </c>
       <c r="AE2" t="n">
-        <v>398300.8627205854</v>
+        <v>450769.2545297169</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.176953228026621e-06</v>
+        <v>5.728798464161099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.954166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>360287.5874013039</v>
+        <v>407748.4695360222</v>
       </c>
     </row>
     <row r="3">
@@ -6381,28 +6381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.8383162933582</v>
+        <v>277.5775040308026</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.4715623241416</v>
+        <v>379.793786870154</v>
       </c>
       <c r="AC3" t="n">
-        <v>307.9774342708658</v>
+        <v>343.5468008951935</v>
       </c>
       <c r="AD3" t="n">
-        <v>248838.3162933582</v>
+        <v>277577.5040308026</v>
       </c>
       <c r="AE3" t="n">
-        <v>340471.5623241416</v>
+        <v>379793.786870154</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.495125809701796e-06</v>
+        <v>6.302538921262862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.322222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>307977.4342708659</v>
+        <v>343546.8008951935</v>
       </c>
     </row>
   </sheetData>
@@ -6678,28 +6678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.151513150683</v>
+        <v>287.0730542940195</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.2683361984891</v>
+        <v>392.7860176543995</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.6027265684343</v>
+        <v>355.2990714081009</v>
       </c>
       <c r="AD2" t="n">
-        <v>250151.513150683</v>
+        <v>287073.0542940195</v>
       </c>
       <c r="AE2" t="n">
-        <v>342268.3361984891</v>
+        <v>392786.0176543994</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.360869564915639e-06</v>
+        <v>6.270308330583161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>309602.7265684343</v>
+        <v>355299.0714081009</v>
       </c>
     </row>
     <row r="3">
@@ -6784,28 +6784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>251.0437283746201</v>
+        <v>287.9652695179566</v>
       </c>
       <c r="AB3" t="n">
-        <v>343.4891044296369</v>
+        <v>394.0067858855479</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.7069863929607</v>
+        <v>356.4033312326276</v>
       </c>
       <c r="AD3" t="n">
-        <v>251043.7283746201</v>
+        <v>287965.2695179567</v>
       </c>
       <c r="AE3" t="n">
-        <v>343489.104429637</v>
+        <v>394006.7858855479</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.365841020314656e-06</v>
+        <v>6.279583477268113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.837499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>310706.9863929607</v>
+        <v>356403.3312326276</v>
       </c>
     </row>
   </sheetData>
@@ -11342,28 +11342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.0933368951123</v>
+        <v>301.7900352804909</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.0806427494057</v>
+        <v>412.9224403074677</v>
       </c>
       <c r="AC2" t="n">
-        <v>329.3332971957931</v>
+        <v>373.513702144807</v>
       </c>
       <c r="AD2" t="n">
-        <v>266093.3368951123</v>
+        <v>301790.0352804909</v>
       </c>
       <c r="AE2" t="n">
-        <v>364080.6427494057</v>
+        <v>412922.4403074677</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.191414086604024e-06</v>
+        <v>6.137207637687714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.461111111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>329333.2971957931</v>
+        <v>373513.702144807</v>
       </c>
     </row>
   </sheetData>
@@ -11639,28 +11639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>344.7917076695516</v>
+        <v>386.7167900740442</v>
       </c>
       <c r="AB2" t="n">
-        <v>471.7592255700757</v>
+        <v>529.1229729199996</v>
       </c>
       <c r="AC2" t="n">
-        <v>426.7351871998985</v>
+        <v>478.6242190132709</v>
       </c>
       <c r="AD2" t="n">
-        <v>344791.7076695516</v>
+        <v>386716.7900740442</v>
       </c>
       <c r="AE2" t="n">
-        <v>471759.2255700757</v>
+        <v>529122.9729199996</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.53263642127034e-06</v>
+        <v>5.223814163770767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.09027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>426735.1871998985</v>
+        <v>478624.2190132709</v>
       </c>
     </row>
   </sheetData>
@@ -11936,28 +11936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>440.1572542024244</v>
+        <v>479.7129067371534</v>
       </c>
       <c r="AB2" t="n">
-        <v>602.2425735673339</v>
+        <v>656.3643624375788</v>
       </c>
       <c r="AC2" t="n">
-        <v>544.7653875988275</v>
+        <v>593.7218688997041</v>
       </c>
       <c r="AD2" t="n">
-        <v>440157.2542024244</v>
+        <v>479712.9067371534</v>
       </c>
       <c r="AE2" t="n">
-        <v>602242.5735673339</v>
+        <v>656364.3624375788</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.605937829931963e-06</v>
+        <v>4.578529968739384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.201388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>544765.3875988275</v>
+        <v>593721.8688997041</v>
       </c>
     </row>
     <row r="3">
@@ -12042,28 +12042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>253.2559610780206</v>
+        <v>282.9013876425653</v>
       </c>
       <c r="AB3" t="n">
-        <v>346.5159788112467</v>
+        <v>387.0781593009361</v>
       </c>
       <c r="AC3" t="n">
-        <v>313.4449801318355</v>
+        <v>350.1359630448626</v>
       </c>
       <c r="AD3" t="n">
-        <v>253255.9610780206</v>
+        <v>282901.3876425654</v>
       </c>
       <c r="AE3" t="n">
-        <v>346515.9788112468</v>
+        <v>387078.1593009362</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.53500328913893e-06</v>
+        <v>6.210861331000156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.045833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>313444.9801318354</v>
+        <v>350135.9630448627</v>
       </c>
     </row>
     <row r="4">
@@ -12148,28 +12148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>254.4192432892196</v>
+        <v>284.0646698537644</v>
       </c>
       <c r="AB4" t="n">
-        <v>348.1076328529976</v>
+        <v>388.6698133426878</v>
       </c>
       <c r="AC4" t="n">
-        <v>314.8847289457427</v>
+        <v>351.57571185877</v>
       </c>
       <c r="AD4" t="n">
-        <v>254419.2432892196</v>
+        <v>284064.6698537644</v>
       </c>
       <c r="AE4" t="n">
-        <v>348107.6328529976</v>
+        <v>388669.8133426878</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.534080070729649e-06</v>
+        <v>6.20923927267396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.047222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>314884.7289457427</v>
+        <v>351575.71185877</v>
       </c>
     </row>
   </sheetData>
@@ -12445,28 +12445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>727.1738414100508</v>
+        <v>778.3781239261082</v>
       </c>
       <c r="AB2" t="n">
-        <v>994.951330462977</v>
+        <v>1065.011288774961</v>
       </c>
       <c r="AC2" t="n">
-        <v>899.9945719065526</v>
+        <v>963.3681061270095</v>
       </c>
       <c r="AD2" t="n">
-        <v>727173.8414100509</v>
+        <v>778378.1239261081</v>
       </c>
       <c r="AE2" t="n">
-        <v>994951.3304629771</v>
+        <v>1065011.288774961</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.981234153812776e-06</v>
+        <v>3.387689609539656e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>899994.5719065525</v>
+        <v>963368.1061270095</v>
       </c>
     </row>
     <row r="3">
@@ -12551,28 +12551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.8357997694064</v>
+        <v>308.5242687406326</v>
       </c>
       <c r="AB3" t="n">
-        <v>380.1471984949155</v>
+        <v>422.136515621046</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.866483410504</v>
+        <v>381.8483990424933</v>
       </c>
       <c r="AD3" t="n">
-        <v>277835.7997694064</v>
+        <v>308524.2687406326</v>
       </c>
       <c r="AE3" t="n">
-        <v>380147.1984949155</v>
+        <v>422136.515621046</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.42423451191081e-06</v>
+        <v>5.85505941047065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.013888888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>343866.483410504</v>
+        <v>381848.3990424933</v>
       </c>
     </row>
     <row r="4">
@@ -12657,28 +12657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.4065022932664</v>
+        <v>284.1802226105162</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.7219559433556</v>
+        <v>388.8279177223035</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.6312990955467</v>
+        <v>351.7187269782962</v>
       </c>
       <c r="AD4" t="n">
-        <v>253406.5022932664</v>
+        <v>284180.2226105162</v>
       </c>
       <c r="AE4" t="n">
-        <v>346721.9559433556</v>
+        <v>388827.9177223035</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.535884662922711e-06</v>
+        <v>6.04596872614071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.823611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>313631.2990955467</v>
+        <v>351718.7269782962</v>
       </c>
     </row>
   </sheetData>
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.2267543597991</v>
+        <v>479.1069127724583</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.7092726448295</v>
+        <v>655.5352147605161</v>
       </c>
       <c r="AC2" t="n">
-        <v>522.5735104836627</v>
+        <v>592.971853913224</v>
       </c>
       <c r="AD2" t="n">
-        <v>422226.7543597991</v>
+        <v>479106.9127724583</v>
       </c>
       <c r="AE2" t="n">
-        <v>577709.2726448295</v>
+        <v>655535.2147605161</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.045075085027187e-06</v>
+        <v>4.383537849290311e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.93888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>522573.5104836628</v>
+        <v>592971.853913224</v>
       </c>
     </row>
   </sheetData>
@@ -13251,28 +13251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.8706141527247</v>
+        <v>289.2982491984739</v>
       </c>
       <c r="AB2" t="n">
-        <v>344.6204860308651</v>
+        <v>395.8306274913446</v>
       </c>
       <c r="AC2" t="n">
-        <v>311.730390522072</v>
+        <v>358.0531079553448</v>
       </c>
       <c r="AD2" t="n">
-        <v>251870.6141527247</v>
+        <v>289298.2491984739</v>
       </c>
       <c r="AE2" t="n">
-        <v>344620.4860308651</v>
+        <v>395830.6274913446</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.391572396859191e-06</v>
+        <v>6.248743329134119e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.6875</v>
       </c>
       <c r="AH2" t="n">
-        <v>311730.390522072</v>
+        <v>358053.1079553448</v>
       </c>
     </row>
     <row r="3">
@@ -13357,28 +13357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.0158950932362</v>
+        <v>286.4435301389854</v>
       </c>
       <c r="AB3" t="n">
-        <v>340.7145334723584</v>
+        <v>391.924674932836</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.1972165937091</v>
+        <v>354.5199340269814</v>
       </c>
       <c r="AD3" t="n">
-        <v>249015.8950932362</v>
+        <v>286443.5301389854</v>
       </c>
       <c r="AE3" t="n">
-        <v>340714.5334723584</v>
+        <v>391924.674932836</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.425048844514644e-06</v>
+        <v>6.310421425454234e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.622222222222223</v>
       </c>
       <c r="AH3" t="n">
-        <v>308197.2165937091</v>
+        <v>354519.9340269815</v>
       </c>
     </row>
   </sheetData>
@@ -13654,28 +13654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.1192521572294</v>
+        <v>374.8037169202467</v>
       </c>
       <c r="AB2" t="n">
-        <v>459.893189336382</v>
+        <v>512.8229806632791</v>
       </c>
       <c r="AC2" t="n">
-        <v>416.001628810262</v>
+        <v>463.8798751403488</v>
       </c>
       <c r="AD2" t="n">
-        <v>336119.2521572294</v>
+        <v>374803.7169202467</v>
       </c>
       <c r="AE2" t="n">
-        <v>459893.189336382</v>
+        <v>512822.9806632791</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.991475394406735e-06</v>
+        <v>5.344052479376968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.300000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>416001.6288102621</v>
+        <v>463879.8751403488</v>
       </c>
     </row>
     <row r="3">
@@ -13760,28 +13760,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>250.6453670467231</v>
+        <v>279.7014084234128</v>
       </c>
       <c r="AB3" t="n">
-        <v>342.944048886347</v>
+        <v>382.699806560172</v>
       </c>
       <c r="AC3" t="n">
-        <v>310.2139501857319</v>
+        <v>346.1754741446203</v>
       </c>
       <c r="AD3" t="n">
-        <v>250645.3670467231</v>
+        <v>279701.4084234128</v>
       </c>
       <c r="AE3" t="n">
-        <v>342944.048886347</v>
+        <v>382699.806560172</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.509524031846699e-06</v>
+        <v>6.269508563864649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>310213.9501857319</v>
+        <v>346175.4741446203</v>
       </c>
     </row>
   </sheetData>
